--- a/ギターのスペクトル.xlsx
+++ b/ギターのスペクトル.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,6 +187,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -222,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,6 +1298,9 @@
         <f t="shared" si="2"/>
         <v>247.5</v>
       </c>
+      <c r="D11">
+        <v>-85</v>
+      </c>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1353,6 +1390,9 @@
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
+      <c r="D12">
+        <v>-78</v>
+      </c>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1442,6 +1482,9 @@
         <f t="shared" si="2"/>
         <v>302.5</v>
       </c>
+      <c r="D13">
+        <v>-73</v>
+      </c>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1531,6 +1574,9 @@
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
+      <c r="D14">
+        <v>-39</v>
+      </c>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1620,6 +1666,9 @@
         <f t="shared" si="2"/>
         <v>357.5</v>
       </c>
+      <c r="D15">
+        <v>-69</v>
+      </c>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1709,6 +1758,9 @@
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
+      <c r="D16">
+        <v>-66</v>
+      </c>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1798,6 +1850,9 @@
         <f t="shared" si="2"/>
         <v>412.5</v>
       </c>
+      <c r="D17">
+        <v>-74</v>
+      </c>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1886,6 +1941,9 @@
       <c r="C18">
         <f t="shared" si="2"/>
         <v>440</v>
+      </c>
+      <c r="D18">
+        <v>-36</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
